--- a/out.xlsx
+++ b/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
   <si>
     <t>﻿Наименование</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Адрес</t>
   </si>
   <si>
-    <t>Координаты</t>
+    <t>Широта</t>
+  </si>
+  <si>
+    <t>Долгота</t>
   </si>
   <si>
     <t>Телефоны</t>
@@ -64,6 +67,42 @@
     <t>Федеральная сеть по продаже автозапчастей. Вовремя и по оптовым ценам — реклама</t>
   </si>
   <si>
+    <t>OSZZ</t>
+  </si>
+  <si>
+    <t>Центральный район, Тула, 300045, Кауля, 10</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185235957803</t>
+  </si>
+  <si>
+    <t>tel:+74872522513</t>
+  </si>
+  <si>
+    <t>http://oszz.ru</t>
+  </si>
+  <si>
+    <t>85% всех автозапчастей для японских авто в наличии — реклама</t>
+  </si>
+  <si>
+    <t>Автопрофи, центр технического обслуживания</t>
+  </si>
+  <si>
+    <t>Красный перекоп, Центральный район, Тула, 300012, Кауля, 45 к1</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185235959124</t>
+  </si>
+  <si>
+    <t>tel:+79605989808</t>
+  </si>
+  <si>
+    <t>http://автопрофи.рус</t>
+  </si>
+  <si>
+    <t>Автозапчасти для иномарок. В наличии и под заказ. Гарантия, возврат — реклама</t>
+  </si>
+  <si>
     <t>A &amp; Z</t>
   </si>
   <si>
@@ -79,40 +118,19 @@
     <t>Защита кузова от разрушения. Работаем без выходных — реклама</t>
   </si>
   <si>
-    <t>OSZZ</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, Кауля, 10</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235957803</t>
-  </si>
-  <si>
-    <t>tel:+74872522513</t>
-  </si>
-  <si>
-    <t>http://oszz.ru</t>
-  </si>
-  <si>
-    <t>85% всех автозапчастей для японских авто в наличии — реклама</t>
-  </si>
-  <si>
-    <t>Автопрофи, центр технического обслуживания</t>
-  </si>
-  <si>
-    <t>Красный перекоп, Центральный район, Тула, 300012, Кауля, 45 к1</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235959124</t>
-  </si>
-  <si>
-    <t>tel:+79605989808</t>
-  </si>
-  <si>
-    <t>http://автопрофи.рус</t>
-  </si>
-  <si>
-    <t>Автозапчасти для иномарок. В наличии и под заказ. Гарантия, возврат — реклама</t>
+    <t>Волга, магазин автотоваров</t>
+  </si>
+  <si>
+    <t>Мясново пос., Привокзальный район, Тула, 300005, Павшинский мост, 3а</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185235954489</t>
+  </si>
+  <si>
+    <t>tel:+74872214031</t>
+  </si>
+  <si>
+    <t>Масла и автохимия: большой выбор по суперценам — реклама</t>
   </si>
   <si>
     <t>Приват</t>
@@ -130,21 +148,6 @@
     <t>1000 запчастей для Рено и Ларгуса уже на складе! Приезжай и забирай — реклама</t>
   </si>
   <si>
-    <t>Волга, магазин автотоваров</t>
-  </si>
-  <si>
-    <t>Мясново пос., Привокзальный район, Тула, 300005, Павшинский мост, 3а</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235954489</t>
-  </si>
-  <si>
-    <t>tel:+74872214031</t>
-  </si>
-  <si>
-    <t>Масла и автохимия: большой выбор по суперценам — реклама</t>
-  </si>
-  <si>
     <t>Тяжеловоз 2001</t>
   </si>
   <si>
@@ -190,6 +193,81 @@
     <t>Газель, УАЗ, Волга, Газон, Валдай, Cummins. Новые и б/у запчасти — реклама</t>
   </si>
   <si>
+    <t>Транзит</t>
+  </si>
+  <si>
+    <t>Киреевский район, Тульская область, трасса М-4 225 км, 1 ст2</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/70030076242424326</t>
+  </si>
+  <si>
+    <t>tel:+79509065324</t>
+  </si>
+  <si>
+    <t>Мелкий и капремонт, автомойка, шиномонтаж. Внимание каждому элементу! — реклама</t>
+  </si>
+  <si>
+    <t>Всегда запчасти</t>
+  </si>
+  <si>
+    <t>Северно-Западный м-н, Щекино, Тульская область, 301246, Пирогова, 43</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185235980013</t>
+  </si>
+  <si>
+    <t>tel:+79036595700</t>
+  </si>
+  <si>
+    <t>Заказ автозапчастей без предоплаты. Три доставки в день — реклама</t>
+  </si>
+  <si>
+    <t>Гарант-Авто71</t>
+  </si>
+  <si>
+    <t>Центральный район, Тула, 300045, Новомосковское шоссе, 54</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185235953823</t>
+  </si>
+  <si>
+    <t>tel:+74872790124</t>
+  </si>
+  <si>
+    <t>Диагностика, ремонт КПП от 1 дня. Удаление катализаторов бесплатно — реклама</t>
+  </si>
+  <si>
+    <t>АвтоМаг</t>
+  </si>
+  <si>
+    <t>Центральный район, Тула, 300045, проезд Некрасова, 6</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185236029286</t>
+  </si>
+  <si>
+    <t>tel:+79038434600</t>
+  </si>
+  <si>
+    <t>Сезонные летние скидки на покраску и кузовной ремонт! — реклама</t>
+  </si>
+  <si>
+    <t>Гараж</t>
+  </si>
+  <si>
+    <t>Центральный район, Тула, 300045, Кауля, 82</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185235960090</t>
+  </si>
+  <si>
+    <t>tel:+79202705005</t>
+  </si>
+  <si>
+    <t>Диагностика двигателя, ходовой, КПП. Шиномонтаж. 3D-сход-развал! — реклама</t>
+  </si>
+  <si>
     <t>Заботливый сервис</t>
   </si>
   <si>
@@ -208,51 +286,6 @@
     <t>Федеральная сеть автосервисов с гарантией 2 года на запасные части — реклама</t>
   </si>
   <si>
-    <t>АвтоМаг</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, проезд Некрасова, 6</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185236029286</t>
-  </si>
-  <si>
-    <t>tel:+79038434600</t>
-  </si>
-  <si>
-    <t>Сезонные летние скидки на покраску и кузовной ремонт! — реклама</t>
-  </si>
-  <si>
-    <t>Гарант-Авто71</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, Новомосковское шоссе, 54</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235953823</t>
-  </si>
-  <si>
-    <t>tel:+74872790124</t>
-  </si>
-  <si>
-    <t>Диагностика, ремонт КПП от 1 дня. Удаление катализаторов бесплатно — реклама</t>
-  </si>
-  <si>
-    <t>Всегда запчасти</t>
-  </si>
-  <si>
-    <t>Северно-Западный м-н, Щекино, Тульская область, 301246, Пирогова, 43</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235980013</t>
-  </si>
-  <si>
-    <t>tel:+79036595700</t>
-  </si>
-  <si>
-    <t>Заказ автозапчастей без предоплаты. Три доставки в день — реклама</t>
-  </si>
-  <si>
     <t>Авточемпион</t>
   </si>
   <si>
@@ -268,34 +301,19 @@
     <t>Автозапчасти для ВАЗа, ГАЗа, иномарок. Автомасла/автоаксессуары/химия — реклама</t>
   </si>
   <si>
-    <t>Гараж</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, Кауля, 82</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235960090</t>
-  </si>
-  <si>
-    <t>tel:+79202705005</t>
-  </si>
-  <si>
-    <t>Диагностика двигателя, ходовой, КПП. Шиномонтаж. 3D-сход-развал! — реклама</t>
-  </si>
-  <si>
-    <t>Транзит</t>
-  </si>
-  <si>
-    <t>Киреевский район, Тульская область, трасса М-4 225 км, 1 ст2</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/70030076242424326</t>
-  </si>
-  <si>
-    <t>tel:+79509065324</t>
-  </si>
-  <si>
-    <t>Мелкий и капремонт, автомойка, шиномонтаж. Внимание каждому элементу! — реклама</t>
+    <t>Tula Scan, грузовой автосервис</t>
+  </si>
+  <si>
+    <t>Мясново пос., Привокзальный район, Тула, 300024, Одоевское шоссе, 95/2</t>
+  </si>
+  <si>
+    <t>https://2gis.ru/tula/geo/5067185235956108</t>
+  </si>
+  <si>
+    <t>tel:+74872714505</t>
+  </si>
+  <si>
+    <t>Ремонт и замена коробки передач в грузовых авто и спецтехнике Scania — реклама</t>
   </si>
   <si>
     <t>РВД-Сервис</t>
@@ -314,21 +332,6 @@
   </si>
   <si>
     <t>Рукава напорные маслобензостойкие. Производство России и Европы</t>
-  </si>
-  <si>
-    <t>Tula Scan, грузовой автосервис</t>
-  </si>
-  <si>
-    <t>Мясново пос., Привокзальный район, Тула, 300024, Одоевское шоссе, 95/2</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235956108</t>
-  </si>
-  <si>
-    <t>tel:+74872714505</t>
-  </si>
-  <si>
-    <t>Ремонт и замена коробки передач в грузовых авто и спецтехнике Scania — реклама</t>
   </si>
   <si>
     <t>Дакар</t>
@@ -755,200 +758,200 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F12" t="s">
@@ -1036,41 +1039,41 @@
       <c r="D17" t="s">
         <v>87</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F19" t="s">
@@ -1090,87 +1093,90 @@
       <c r="D20" t="s">
         <v>103</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1179,26 +1185,26 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="E3" r:id="rId3"/>
     <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="E5" r:id="rId6"/>
-    <hyperlink ref="C6" r:id="rId7"/>
-    <hyperlink ref="E6" r:id="rId8"/>
+    <hyperlink ref="E4" r:id="rId5"/>
+    <hyperlink ref="C5" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="C6" r:id="rId8"/>
     <hyperlink ref="C7" r:id="rId9"/>
     <hyperlink ref="C8" r:id="rId10"/>
     <hyperlink ref="C9" r:id="rId11"/>
     <hyperlink ref="C10" r:id="rId12"/>
     <hyperlink ref="C11" r:id="rId13"/>
     <hyperlink ref="C12" r:id="rId14"/>
-    <hyperlink ref="E12" r:id="rId15"/>
-    <hyperlink ref="C13" r:id="rId16"/>
-    <hyperlink ref="C14" r:id="rId17"/>
-    <hyperlink ref="C15" r:id="rId18"/>
-    <hyperlink ref="C16" r:id="rId19"/>
-    <hyperlink ref="C17" r:id="rId20"/>
+    <hyperlink ref="C13" r:id="rId15"/>
+    <hyperlink ref="C14" r:id="rId16"/>
+    <hyperlink ref="C15" r:id="rId17"/>
+    <hyperlink ref="C16" r:id="rId18"/>
+    <hyperlink ref="C17" r:id="rId19"/>
+    <hyperlink ref="E17" r:id="rId20"/>
     <hyperlink ref="C18" r:id="rId21"/>
     <hyperlink ref="C19" r:id="rId22"/>
-    <hyperlink ref="E19" r:id="rId23"/>
-    <hyperlink ref="C20" r:id="rId24"/>
+    <hyperlink ref="C20" r:id="rId23"/>
+    <hyperlink ref="E20" r:id="rId24"/>
     <hyperlink ref="C21" r:id="rId25"/>
     <hyperlink ref="C22" r:id="rId26"/>
     <hyperlink ref="E22" r:id="rId27"/>

--- a/out.xlsx
+++ b/out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>﻿Наименование</t>
   </si>
@@ -193,99 +193,6 @@
     <t>Газель, УАЗ, Волга, Газон, Валдай, Cummins. Новые и б/у запчасти — реклама</t>
   </si>
   <si>
-    <t>Транзит</t>
-  </si>
-  <si>
-    <t>Киреевский район, Тульская область, трасса М-4 225 км, 1 ст2</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/70030076242424326</t>
-  </si>
-  <si>
-    <t>tel:+79509065324</t>
-  </si>
-  <si>
-    <t>Мелкий и капремонт, автомойка, шиномонтаж. Внимание каждому элементу! — реклама</t>
-  </si>
-  <si>
-    <t>Всегда запчасти</t>
-  </si>
-  <si>
-    <t>Северно-Западный м-н, Щекино, Тульская область, 301246, Пирогова, 43</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235980013</t>
-  </si>
-  <si>
-    <t>tel:+79036595700</t>
-  </si>
-  <si>
-    <t>Заказ автозапчастей без предоплаты. Три доставки в день — реклама</t>
-  </si>
-  <si>
-    <t>Гарант-Авто71</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, Новомосковское шоссе, 54</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235953823</t>
-  </si>
-  <si>
-    <t>tel:+74872790124</t>
-  </si>
-  <si>
-    <t>Диагностика, ремонт КПП от 1 дня. Удаление катализаторов бесплатно — реклама</t>
-  </si>
-  <si>
-    <t>АвтоМаг</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, проезд Некрасова, 6</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185236029286</t>
-  </si>
-  <si>
-    <t>tel:+79038434600</t>
-  </si>
-  <si>
-    <t>Сезонные летние скидки на покраску и кузовной ремонт! — реклама</t>
-  </si>
-  <si>
-    <t>Гараж</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, Кауля, 82</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235960090</t>
-  </si>
-  <si>
-    <t>tel:+79202705005</t>
-  </si>
-  <si>
-    <t>Диагностика двигателя, ходовой, КПП. Шиномонтаж. 3D-сход-развал! — реклама</t>
-  </si>
-  <si>
-    <t>Заботливый сервис</t>
-  </si>
-  <si>
-    <t>Зареченский район, Тула, 300044, Луначарского, 134</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235974689</t>
-  </si>
-  <si>
-    <t>tel:+79308982720</t>
-  </si>
-  <si>
-    <t>http://caring-service.com</t>
-  </si>
-  <si>
-    <t>Федеральная сеть автосервисов с гарантией 2 года на запасные части — реклама</t>
-  </si>
-  <si>
     <t>Авточемпион</t>
   </si>
   <si>
@@ -299,99 +206,6 @@
   </si>
   <si>
     <t>Автозапчасти для ВАЗа, ГАЗа, иномарок. Автомасла/автоаксессуары/химия — реклама</t>
-  </si>
-  <si>
-    <t>Tula Scan, грузовой автосервис</t>
-  </si>
-  <si>
-    <t>Мясново пос., Привокзальный район, Тула, 300024, Одоевское шоссе, 95/2</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235956108</t>
-  </si>
-  <si>
-    <t>tel:+74872714505</t>
-  </si>
-  <si>
-    <t>Ремонт и замена коробки передач в грузовых авто и спецтехнике Scania — реклама</t>
-  </si>
-  <si>
-    <t>РВД-Сервис</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300041, Пионерская, 65</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235957322</t>
-  </si>
-  <si>
-    <t>tel:+74872584038</t>
-  </si>
-  <si>
-    <t>http://rvd-servis.ru</t>
-  </si>
-  <si>
-    <t>Рукава напорные маслобензостойкие. Производство России и Европы</t>
-  </si>
-  <si>
-    <t>Дакар</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300045, Новомосковское шоссе, 13</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235970584</t>
-  </si>
-  <si>
-    <t>tel:+74872774999</t>
-  </si>
-  <si>
-    <t>Техком+</t>
-  </si>
-  <si>
-    <t>Пролетарский район, Тула, 300001, Карла Маркса, 54а</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235970039</t>
-  </si>
-  <si>
-    <t>tel:+74872408040</t>
-  </si>
-  <si>
-    <t>http://tehkom-avto.ru</t>
-  </si>
-  <si>
-    <t>Респект авто</t>
-  </si>
-  <si>
-    <t>Горелки пос., Зареченский район, Тула, 300901, Большая, 1а</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235959129</t>
-  </si>
-  <si>
-    <t>tel:+74872755755</t>
-  </si>
-  <si>
-    <t>http://respectavto.com</t>
-  </si>
-  <si>
-    <t>AvtoAll</t>
-  </si>
-  <si>
-    <t>Рогожинский пос., Центральный район, Тула, 300012, Станиславского, 37а</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235970962</t>
-  </si>
-  <si>
-    <t>tel:+74872245605</t>
-  </si>
-  <si>
-    <t>Центральный район, Тула, 300026, Николая Руднева, 46</t>
-  </si>
-  <si>
-    <t>https://2gis.ru/tula/geo/5067185235972563</t>
   </si>
 </sst>
 </file>
@@ -736,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -941,242 +755,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1194,25 +787,7 @@
     <hyperlink ref="C9" r:id="rId11"/>
     <hyperlink ref="C10" r:id="rId12"/>
     <hyperlink ref="C11" r:id="rId13"/>
-    <hyperlink ref="C12" r:id="rId14"/>
-    <hyperlink ref="C13" r:id="rId15"/>
-    <hyperlink ref="C14" r:id="rId16"/>
-    <hyperlink ref="C15" r:id="rId17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19"/>
-    <hyperlink ref="E17" r:id="rId20"/>
-    <hyperlink ref="C18" r:id="rId21"/>
-    <hyperlink ref="C19" r:id="rId22"/>
-    <hyperlink ref="C20" r:id="rId23"/>
-    <hyperlink ref="E20" r:id="rId24"/>
-    <hyperlink ref="C21" r:id="rId25"/>
-    <hyperlink ref="C22" r:id="rId26"/>
-    <hyperlink ref="E22" r:id="rId27"/>
-    <hyperlink ref="C23" r:id="rId28"/>
-    <hyperlink ref="E23" r:id="rId29"/>
-    <hyperlink ref="C24" r:id="rId30"/>
-    <hyperlink ref="C25" r:id="rId31"/>
-    <hyperlink ref="E25" r:id="rId32"/>
+    <hyperlink ref="C13" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
